--- a/DataImport2023/Final2023/Socios/05_325_FEPP.xlsx
+++ b/DataImport2023/Final2023/Socios/05_325_FEPP.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\proyectos\OSMOSYS_2023\DataImport2023\Final2023\Socios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{479FAB22-CD91-48DC-88D7-D54DFD2EFF92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB69DB3-FA43-49DA-BDD4-CDF19FAB23A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8F03CC54-74AB-4EFD-8B42-58C549E13E8B}"/>
   </bookViews>
@@ -437,33 +437,12 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -490,6 +469,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -811,7 +811,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -821,7 +821,7 @@
     <col min="3" max="3" width="45" style="2" customWidth="1"/>
     <col min="4" max="8" width="9" style="1"/>
     <col min="9" max="9" width="47.625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="6"/>
+    <col min="10" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -829,168 +829,164 @@
       <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="5"/>
+      <c r="E2" s="16"/>
     </row>
     <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="17">
         <v>2820</v>
       </c>
-      <c r="E3" s="9"/>
+      <c r="E3" s="18"/>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="12"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="21"/>
     </row>
     <row r="6" spans="1:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="19" t="s">
+      <c r="I6" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="57" x14ac:dyDescent="0.2">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="13">
         <v>2</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="13">
         <v>7</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="13">
         <v>6</v>
       </c>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20">
-        <f>SUM(D7:G7)</f>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13">
         <v>15</v>
       </c>
-      <c r="I7" s="20" t="s">
+      <c r="I7" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="57" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="13">
         <v>24</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="13">
         <v>84</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="13">
         <v>72</v>
       </c>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20">
-        <f t="shared" ref="H8:H10" si="0">SUM(D8:G8)</f>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13">
         <v>180</v>
       </c>
-      <c r="I8" s="20" t="s">
+      <c r="I8" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="57" x14ac:dyDescent="0.2">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="13">
         <v>2</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="13">
         <v>7</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="13">
         <v>6</v>
       </c>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20">
-        <f t="shared" si="0"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13">
         <v>15</v>
       </c>
-      <c r="I9" s="20" t="s">
+      <c r="I9" s="13" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="57" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="13">
         <v>507</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="13">
         <v>1002</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="13">
         <v>954</v>
       </c>
-      <c r="G10" s="20">
+      <c r="G10" s="13">
         <v>357</v>
       </c>
-      <c r="H10" s="20">
-        <f t="shared" si="0"/>
+      <c r="H10" s="13">
         <v>2820</v>
       </c>
-      <c r="I10" s="20" t="s">
+      <c r="I10" s="13" t="s">
         <v>22</v>
       </c>
     </row>
